--- a/pred_ohlcv/54_21/2020-01-25 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BTT ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>25544181.69026258</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>29583795.28526258</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>29583795.28526258</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>29622389.26366258</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>29611688.76266258</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>31314214.86936258</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>31427127.43526258</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>28412430.86926258</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>28413666.90226258</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>21123058.30766258</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>21053809.65906258</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>21076547.26716258</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>12073800.03126258</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>10349731.77936258</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>9038017.650462579</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-31930707.60892041</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-22632073.1634046</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-22713759.44420459</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-22540080.40620459</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-23247076.74450459</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-23151938.3659046</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-24846916.84270459</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-25259469.02450459</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-25135572.1174046</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-25136923.8439046</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-17685422.5781046</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-13074599.4466046</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-12404599.4466046</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-12424599.4466046</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-12617681.2770046</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4042376.688504599</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BTT ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>25542940.53226258</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>25544181.69026258</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>25500248.32626258</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>25501516.48286258</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>29583795.28526258</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>29583795.28526258</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>29622389.26366258</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>29611688.76266258</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>31314214.86936258</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>31427127.43526258</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>28412430.86926258</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>28413666.90226258</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>21123058.30766258</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>21053809.65906258</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>21076547.26716258</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>12073800.03126258</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-31930707.60892041</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-22632073.1634046</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-22540080.40620459</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-23247076.74450459</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-23250975.85240459</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-23462375.6650046</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-23462375.6650046</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-22204486.3404046</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-24846916.84270459</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-24929516.84270459</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-24961338.57800459</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-24957652.2911046</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-24240094.2201046</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-20981201.4175046</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-17189698.8630046</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-17051298.0362046</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-17685422.5781046</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-13074599.4466046</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-12404599.4466046</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-12424599.4466046</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-12617681.2770046</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-12617681.2770046</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-4042376.688504599</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4142376.688404599</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4142376.688404599</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4142376.688404599</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
